--- a/Day3_All Practice More.xlsx
+++ b/Day3_All Practice More.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Data_Analyst_Practice_Files\Neeraj Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BF1493-5EA4-4EBF-A96D-747ECEDEDA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F67FF-93AD-430D-8921-903CFFA55137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,15 @@
   <definedNames>
     <definedName name="budget">#REF!</definedName>
     <definedName name="Chair">Sheet10!$F$10</definedName>
+    <definedName name="Chair_Sheet">Sheet10!$F$10</definedName>
+    <definedName name="Chair123">Sheet10!$F$10</definedName>
+    <definedName name="chairPerson">Sheet10!$F$10</definedName>
+    <definedName name="chartable">Sheet10!$J$9</definedName>
     <definedName name="Fan">Sheet10!$F$12</definedName>
+    <definedName name="ram">Sheet10!$H$9</definedName>
     <definedName name="razor">#REF!</definedName>
+    <definedName name="rohan">Sheet10!$H$10</definedName>
+    <definedName name="shivam">Sheet10!$H$9</definedName>
     <definedName name="Table">Sheet10!$F$11</definedName>
     <definedName name="Total_Cost">Sheet10!$F$14</definedName>
     <definedName name="Total_Profit">Sheet2!$F$14</definedName>
@@ -2043,11 +2050,11 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f ca="1">TODAY()</f>
-        <v>46050</v>
+        <v>46051</v>
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>46050.470901388886</v>
+        <v>46051.468694328702</v>
       </c>
       <c r="C2">
         <f ca="1">YEAR(B2)</f>
@@ -2059,7 +2066,7 @@
       </c>
       <c r="E2">
         <f ca="1">DAY(B2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <f ca="1">HOUR(B2)</f>
@@ -2067,21 +2074,21 @@
       </c>
       <c r="G2">
         <f ca="1">MINUTE(B2)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <f ca="1">SECOND(B2)</f>
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I2" s="5">
         <f ca="1">EDATE(A2,4)</f>
-        <v>46170</v>
+        <v>46171</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="4">
         <f ca="1">EDATE(A2,3*12)</f>
-        <v>47146</v>
+        <v>47147</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4729,7 +4736,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5088,7 +5095,7 @@
   <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
